--- a/AI & Chatbot/Dados-Analise-IA.xlsx
+++ b/AI & Chatbot/Dados-Analise-IA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ezzeseguroscombr-my.sharepoint.com/personal/claudio_bispo_ezzeseguros_com_br/Documents/Área de Trabalho/PESSOAL/FIAP/CHALLENGE/TERCEIRA SPRINT/IA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{042E18AC-7709-4568-B1DE-1D8C5FC73227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C77F0FE-F5B6-4A04-B2A0-37619DEE60CF}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{042E18AC-7709-4568-B1DE-1D8C5FC73227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8C5B29A-7254-433C-9FC4-5C9B3F0A92E4}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5A6420E8-40DB-4CDE-9C2D-E46CAA91B4B8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5A6420E8-40DB-4CDE-9C2D-E46CAA91B4B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Cadastro" sheetId="1" r:id="rId1"/>
@@ -40,148 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="464">
-  <si>
-    <t>Nome,Sobrenome,Email,Telefone,SetorAtuacao,Cargo,PublicoAlvo,PrincipaisDesafios,PrincipaisObjetivos,AreaConexao,ProcessosOtimizar,TipoConexao,PessoaProcesso,SistemasUtilizados,Local,ProcessosManuais,UsoCRM,ConhecimentoIntegracoes,Preferencias</t>
-  </si>
-  <si>
-    <t>Fernanda,Almeida,fernanda.almeida@email.com,(111) 111-1111,Marketing,Gerente,Empresas de Tecnologia,Aumentar conversões,Melhorar a experiência do usuário,Marketing e Vendas,Gestão de Leads,Integração com Redes Sociais,Todos,CRM,Nuvem,Sim,Sim,Sim,Simplicidade</t>
-  </si>
-  <si>
-    <t>Ricardo,Silva,ricardo.silva@email.com,(222) 222-2222,Finanças,Analista,Clientes Corporativos,Reduzir custos operacionais,Aumentar eficiência financeira,Finanças,Gestão Financeira,Nuvem,Todos,Excel,Nuvem,Não,Sim,Não,Modernidade</t>
-  </si>
-  <si>
-    <t>Carla,Oliveira,carla.oliveira@email.com,(333) 333-3333,Vendas,Vendedor,PMEs,Ampliar carteira de clientes,Melhorar processo de vendas,Vendas,Gestão de Venda,Integração com E-commerce,Gestores,ERP e CRM,Local,Sim,Não,Sim,Simplicidade</t>
-  </si>
-  <si>
-    <t>Rodrigo,Santos,rodrigo.santos@email.com,(444) 444-4444,Atendimento ao cliente,Supervisor,Consumidores Finais,Reduzir tempo de espera no atendimento,Manter alta satisfação do cliente,Atendimento ao cliente,Gestão de Atendimento,Nuvem,Assistentes,Software de suporte ao cliente,Nuvem,Não,Não,Sim,Personalização</t>
-  </si>
-  <si>
-    <t>Juliana,Lima,juliana.lima@email.com,(555) 555-5555,Serviços,Coordenador,Pessoas Jurídicas,Agilizar processos internos,Melhorar comunicação interna,Serviços,Automação de Processos,Nuvem,Devs,Automacao e ERP,Nuvem,Sim,Sim,Não,Intuitividade</t>
-  </si>
-  <si>
-    <t>André,Pereira,andre.pereira@email.com,(666) 666-6666,Marketing,Analista,Agências de Publicidade,Maximizar ROI de campanhas,Melhorar segmentação de público alvo,Marketing,Gestão de Campanhas,Integração com Ferramentas de Email Marketing,Analistas,CRM e Automação,Nuvem,Sim,Sim,Sim,Personalização</t>
-  </si>
-  <si>
-    <t>Aline,Silveira,aline.silveira@email.com,(777) 777-7777,BI,Analista,Grandes Empresas,Analisar dados para tomada de decisão,Melhorar visualização de dados,BI,BI e Analytics,Nuvem,Todos,Excel e Power BI,Nuvem,Sim,Sim,Sim,Inovação</t>
-  </si>
-  <si>
-    <t>Luiz,Fernandes,luiz.fernandes@email.com,(888) 888-8888,Vendas,Vendedor,Clientes Individuais,Aumentar volume de vendas,Melhorar qualificação de leads,Vendas,Gestão de Leads,Nuvem,Assistentes,CRM e Automacao,Nuvem,Sim,Sim,Sim,Usabilidade</t>
-  </si>
-  <si>
-    <t>Cristina,Melo,cristina.melo@email.com,(999) 999-9999,Atendimento ao cliente,Atendente,Clientes Corporativos,Oferecer suporte personalizado,Melhorar tempo de resposta,Atendimento ao cliente,Gestão de Atendimento,Nuvem,Assistentes,Sistema de suporte ao cliente,Nuvem,Não,Não,Sim,Personalização</t>
-  </si>
-  <si>
-    <t>Rafaela,Correia,rafaela.correia@email.com,(101) 010-1010,Marketing,Analista,Startups,Alcançar público-alvo específico,Melhorar taxa de conversão,Marketing,Gestão de Campanhas,Integração com Ferramentas de Automação de Marketing,Analistas,CRM e Automação,Nuvem,Sim,Sim,Sim,Inovação</t>
-  </si>
-  <si>
-    <t>Carlos,Silva,carlos.silva@email.com,(202) 020-2020,Finanças,Analista,Clientes Individuais,Reduzir inadimplência,Melhorar gestão de fluxo de caixa,Finanças,Gestão Financeira,Nuvem,Analistas,ERP e Excel,Nuvem,Não,Não,Sim,Personalização</t>
-  </si>
-  <si>
-    <t>Mariana,Santana,mariana.santana@email.com,(303) 030-3030,Serviços,Coordenador,PMEs,Padronizar processos internos,Melhorar comunicação com clientes,Serviços,Automação de Processos e Atendimento,Nuvem,Devs e Assistentes,CRM e Software de suporte ao cliente,Nuvem,Sim,Sim,Não,Intuitividade</t>
-  </si>
-  <si>
-    <t>Diego,Oliveira,diego.oliveira@email.com,(404) 040-4040,Atendimento ao cliente,Supervisor,Consumidores Finais,Reduzir churn de clientes,Melhorar experiência do cliente,Atendimento ao cliente,Gestão de Atendimento,Nuvem,Assistentes,Sistema de suporte ao cliente,Nuvem,Não,Não,Sim,Personalização</t>
-  </si>
-  <si>
-    <t>Patrícia,Alves,patricia.alves@email.com,(505) 050-5050,BI,Analista,Grandes Empresas,Analisar tendências de mercado,Melhorar relatórios gerenciais,BI,BI e Analytics,Nuvem,Todos,Power BI e Excel,Nuvem,Sim,Sim,Sim,Inovação</t>
-  </si>
-  <si>
-    <t>Paulo,Menezes,paulo.menezes@email.com,(606) 060-6060,Marketing,Gerente,Empresas de Tecnologia,Expandir base de clientes,Desenvolver estratégias de marketing inovadoras,Marketing e Vendas,Gestão de Leads,Integração com Redes Sociais,Gestores,CRM e Automação,Nuvem,Sim,Sim,Sim,Simplicidade</t>
-  </si>
-  <si>
-    <t>Amanda,Ferreira,amanda.ferreira@email.com,(707) 070-7070,Finanças,Analista,Clientes Corporativos,Reduzir custos operacionais,Aumentar eficiência financeira,Finanças,Gestão Financeira,Nuvem,Assistentes e Devs,ERP e Excel,Nuvem,Não,Sim,Sim,Personalização</t>
-  </si>
-  <si>
-    <t>Pedro,Souza,pedro.souza@email.com,(808) 080-8080,Vendas,Vendedor,PMEs,Aumentar volume de vendas,Melhorar qualificação de leads,Vendas,Gestão de Venda,Integração com E-commerce,Devs,CRM e Automacao,Nuvem,Sim,Não,Sim,Usabilidade</t>
-  </si>
-  <si>
-    <t>Julia,Machado,julia.machado@email.com,(909) 090-9090,Atendimento ao cliente,Supervisor,Consumidores Finais,Oferecer suporte personalizado,Melhorar tempo de resposta,Atendimento ao cliente,Gestão de Atendimento,Nuvem,Assistentes,Sistema de suporte ao cliente,Nuvem,Não,Sim,Sim,Personalização</t>
-  </si>
-  <si>
-    <t>Fernando,Ribeiro,fernando.ribeiro@email.com,(101) 010-1010,Serviços,Coordenador,Pessoas Jurídicas,Padronizar processos internos,Melhorar comunicação interna,Serviços,Automação de Processos e Atendimento,Nuvem,Devs e Assistentes,CRM e Software de suporte ao cliente,Nuvem,Sim,Sim,Sim,Intuitividade</t>
-  </si>
-  <si>
-    <t>Roberta,Carvalho,roberta.carvalho@email.com,(202) 020-2020,Marketing,Analista,Agências de Publicidade,Aumentar alcance das campanhas,Melhorar taxa de conversão,Marketing,Gestão de Campanhas,Integração com Ferramentas de Automação de Marketing,Analistas,CRM e Automação,Nuvem,Sim,Sim,Sim,Personalização</t>
-  </si>
-  <si>
-    <t>João,Silveira,joao.silveira@email.com,(303) 030-3030,BI,Analista,Grandes Empresas,Analisar dados para tomada de decisão,Visualizar informações estratégicas,BI,BI e Analytics,Nuvem,Todos,Power BI e Excel,Nuvem,Sim,Sim,Sim,Inovação</t>
-  </si>
-  <si>
-    <t>Camila,Nunes,camila.nunes@email.com,(404) 040-4040,Vendas,Vendedor,Clientes Individuais,Aumentar taxa de conversão de vendas,Melhorar atendimento ao cliente,Vendas,Gestão de Leads,Nuvem,Assistentes,CRM e Automacao,Nuvem,Sim,Sim,Sim,Usabilidade</t>
-  </si>
-  <si>
-    <t>Gustavo,Almeida,gustavo.almeida@email.com,(505) 050-5050,Atendimento ao cliente,Atendente,Clientes Corporativos,Reduzir tempo de espera no atendimento,Melhorar experiência do cliente,Atendimento ao cliente,Gestão de Atendimento,Nuvem,Assistentes,Sistema de suporte ao cliente,Nuvem,Não,Sim,Sim,Personalização</t>
-  </si>
-  <si>
-    <t>Marina,Figueiredo,marina.figueiredo@email.com,(606) 060-6060,BI,Analista,Grandes Empresas,Analisar tendências de mercado,Elaborar relatórios estratégicos,BI,BI e Analytics,Nuvem,Todos,Power BI e Excel,Nuvem,Sim,Sim,Sim,Inovação</t>
-  </si>
-  <si>
-    <t>Renato,Moura,renato.moura@email.com,(707) 070-7070,Marketing,Analista,Startups,Aumentar visibilidade da marca,Desenvolver estratégias de inbound marketing,Marketing,Gestão de Campanhas,Integração com Ferramentas de Automação de Marketing,Analistas,CRM e Automação,Nuvem,Sim,Sim,Sim,Personalização</t>
-  </si>
-  <si>
-    <t>Bianca,Correa,bianca.correa@email.com,(808) 080-8080,Finanças,Analista,Clientes Individuais,Reduzir inadimplência,Melhorar gestão de fluxo de caixa,Finanças,Gestão Financeira,Nuvem,Analistas,ERP e Excel,Nuvem,Não,Sim,Sim,Personalização</t>
-  </si>
-  <si>
-    <t>Luisa,Silva,luisa.silva@email.com,(909) 090-9090,Serviços,Coordenador,PMEs,Aumentar eficiência operacional,Melhorar relacionamento com clientes,Serviços,Automação de Processos e Atendimento,Nuvem,Devs e Assistentes,CRM e Software de suporte ao cliente,Nuvem,Sim,Sim,Sim,Intuitividade</t>
-  </si>
-  <si>
-    <t>Rafael,Santos,rafael.santos@email.com,(101) 010-1010,Atendimento ao cliente,Supervisor,Consumidores Finais,Reduzir churn de clientes,Melhorar experiência do cliente,Atendimento ao cliente,Gestão de Atendimento,Nuvem,Assistentes,Sistema de suporte ao cliente,Nuvem,Não,Sim,Sim,Personalização</t>
-  </si>
-  <si>
-    <t>Gabriela,Costa,gabriela.costa@email.com,(202) 020-2020,BI,Analista,Grandes Empresas,Analisar dados para tomada de decisão,Produzir insights valiosos,BI,BI e Analytics,Nuvem,Todos,Power BI e Excel,Nuvem,Sim,Sim,Sim,Inovação</t>
-  </si>
-  <si>
-    <t>Ana,Carvalho,ana.carvalho@email.com,(111) 111-1111,Vendas,Vendedor,PMEs,Aumentar volume de vendas,Melhorar qualificação de leads,Vendas,Gestão de Venda,Integração com E-commerce,Devs,CRM e Automacao,Nuvem,Sim,Sim,Sim,Usabilidade</t>
-  </si>
-  <si>
-    <t>Lucas,Fernandes,lucas.fernandes@email.com,(222) 222-2222,Atendimento ao cliente,Atendente,Clientes Corporativos,Reduzir tempo de espera no atendimento,Melhorar experiência do cliente,Atendimento ao cliente,Gestão de Atendimento,Nuvem,Assistentes,Sistema de suporte ao cliente,Nuvem,Não,Sim,Sim,Personalização</t>
-  </si>
-  <si>
-    <t>Carolina,Silveira,carolina.silveira@email.com,(333) 333-3333,BI,Analista,Grandes Empresas,Analisar tendências de mercado,Elaborar relatórios estratégicos,BI,BI e Analytics,Nuvem,Todos,Power BI e Excel,Nuvem,Sim,Sim,Sim,Inovação</t>
-  </si>
-  <si>
-    <t>Diego,Machado,diego.machado@email.com,(444) 444-4444,Marketing,Analista,Startups,Aumentar visibilidade da marca,Desenvolver estratégias de inbound marketing,Marketing,Gestão de Campanhas,Integração com Ferramentas de Automação de Marketing,Analistas,CRM e Automação,Nuvem,Sim,Sim,Sim,Personalização</t>
-  </si>
-  <si>
-    <t>Fernanda,Souza,fernanda.souza@email.com,(555) 555-5555,Finanças,Analista,Clientes Individuais,Reduzir inadimplência,Melhorar gestão de fluxo de caixa,Finanças,Gestão Financeira,Nuvem,Analistas,ERP e Excel,Nuvem,Não,Sim,Sim,Personalização</t>
-  </si>
-  <si>
-    <t>Gustavo,Ribeiro,gustavo.ribeiro@email.com,(666) 666-6666,Serviços,Coordenador,PMEs,Aumentar eficiência operacional,Melhorar relacionamento com clientes,Serviços,Automação de Processos e Atendimento,Nuvem,Devs e Assistentes,CRM e Software de suporte ao cliente,Nuvem,Sim,Sim,Sim,Intuitividade</t>
-  </si>
-  <si>
-    <t>Marina,Correa,marina.correa@email.com,(777) 777-7777,Atendimento ao cliente,Supervisor,Consumidores Finais,Reduzir churn de clientes,Melhorar experiência do cliente,Atendimento ao cliente,Gestão de Atendimento,Nuvem,Assistentes,Sistema de suporte ao cliente,Nuvem,Não,Sim,Sim,Personalização</t>
-  </si>
-  <si>
-    <t>Rafael,Nunes,rafael.nunes@email.com,(888) 888-8888,BI,Analista,Grandes Empresas,Analisar dados para tomada de decisão,Produzir insights valiosos,BI,BI e Analytics,Nuvem,Todos,Power BI e Excel,Nuvem,Sim,Sim,Sim,Inovação</t>
-  </si>
-  <si>
-    <t>Beatriz,Lima,beatriz.lima@email.com,(999) 999-9999,Vendas,Vendedor,Clientes Individuais,Aumentar taxa de conversão de vendas,Melhorar atendimento ao cliente,Vendas,Gestão de Leads,Nuvem,Assistentes,CRM e Automacao,Nuvem,Sim,Sim,Sim,Usabilidade</t>
-  </si>
-  <si>
-    <t>Luciana,Almeida,luciana.almeida@email.com,(000) 000-0000,Atendimento ao cliente,Atendente,Clientes Corporativos,Reduzir tempo de espera no atendimento,Melhorar experiência do cliente,Atendimento ao cliente,Gestão de Atendimento,Nuvem,Assistentes,Sistema de suporte ao cliente,Nuvem,Não,Sim,Sim,Personalização</t>
-  </si>
-  <si>
-    <t>Carlos,Silva,carlos.silva@email.com,(123) 123-1234,Marketing,Analista,Startups,Aumentar visibilidade da marca,Desenvolver estratégias de inbound marketing,Marketing,Gestão de Campanhas,Integração com Ferramentas de Automação de Marketing,Analistas,CRM e Automação,Nuvem,Sim,Sim,Sim,Personalização</t>
-  </si>
-  <si>
-    <t>Gabriel,Ferreira,gabriel.ferreira@email.com,(456) 456-4567,Finanças,Analista,Clientes Individuais,Reduzir inadimplência,Melhorar gestão de fluxo de caixa,Finanças,Gestão Financeira,Nuvem,Analistas,ERP e Excel,Nuvem,Não,Sim,Sim,Personalização</t>
-  </si>
-  <si>
-    <t>Vitor,Cordeiro,vitor.cordeiro@email.com,(789) 789-7890,Serviços,Coordenador,PMEs,Aumentar eficiência operacional,Melhorar relacionamento com clientes,Serviços,Automação de Processos e Atendimento,Nuvem,Devs e Assistentes,CRM e Software de suporte ao cliente,Nuvem,Sim,Sim,Sim,Intuitividade</t>
-  </si>
-  <si>
-    <t>Juliana,Pereira,juliana.pereira@email.com,(012) 012-0123,Atendimento ao cliente,Supervisor,Consumidores Finais,Reduzir churn de clientes,Melhorar experiência do cliente,Atendimento ao cliente,Gestão de Atendimento,Nuvem,Assistentes,Sistema de suporte ao cliente,Nuvem,Não,Sim,Sim,Personalização</t>
-  </si>
-  <si>
-    <t>Matheus,Santana,matheus.santana@email.com,(345) 345-3456,BI,Analista,Grandes Empresas,Analisar dados para tomada de decisão,Produzir insights valiosos,BI,BI e Analytics,Nuvem,Todos,Power BI e Excel,Nuvem,Sim,Sim,Sim,Inovação</t>
-  </si>
-  <si>
-    <t>Isabela,Oliveira,isabela.oliveira@email.com,(678) 678-6789,Vendas,Vendedor,Clientes Individuais,Aumentar taxa de conversão de vendas,Melhorar atendimento ao cliente,Vendas,Gestão de Leads,Nuvem,Assistentes,CRM e Automacao,Nuvem,Sim,Sim,Sim,Usabilidade</t>
-  </si>
-  <si>
-    <t>Ricardo,Mendes,ricardo.mendes@email.com,(901) 901-9012,Atendimento ao cliente,Atendente,Clientes Corporativos,Reduzir tempo de espera no atendimento,Melhorar experiência do cliente,Atendimento</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="651">
   <si>
     <t>Nome</t>
   </si>
@@ -1432,6 +1291,708 @@
   </si>
   <si>
     <t>(31)30303-0303</t>
+  </si>
+  <si>
+    <t>SetorAtuacao</t>
+  </si>
+  <si>
+    <t>PublicoAlvo</t>
+  </si>
+  <si>
+    <t>PrincipaisDesafios</t>
+  </si>
+  <si>
+    <t>PrincipaisObjetivos</t>
+  </si>
+  <si>
+    <t>AreaConexao</t>
+  </si>
+  <si>
+    <t>ProcessosOtimizar</t>
+  </si>
+  <si>
+    <t>TipoConexao</t>
+  </si>
+  <si>
+    <t>PessoaProcesso</t>
+  </si>
+  <si>
+    <t>SistemasUtilizados</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>ProcessosManuais</t>
+  </si>
+  <si>
+    <t>UsoCRM</t>
+  </si>
+  <si>
+    <t>ConhecimentoIntegracoes</t>
+  </si>
+  <si>
+    <t>Preferencias</t>
+  </si>
+  <si>
+    <t>Almeida</t>
+  </si>
+  <si>
+    <t>fernanda.almeida@email.com</t>
+  </si>
+  <si>
+    <t>Empresas de Tecnologia</t>
+  </si>
+  <si>
+    <t>Aumentar conversões</t>
+  </si>
+  <si>
+    <t>Melhorar a experiência do usuário</t>
+  </si>
+  <si>
+    <t>Marketing e Vendas</t>
+  </si>
+  <si>
+    <t>Gestão de Leads</t>
+  </si>
+  <si>
+    <t>Integração com Redes Sociais</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>Nuvem</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Simplicidade</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>Silva</t>
+  </si>
+  <si>
+    <t>ricardo.silva@email.com</t>
+  </si>
+  <si>
+    <t>Clientes Corporativos</t>
+  </si>
+  <si>
+    <t>Reduzir custos operacionais</t>
+  </si>
+  <si>
+    <t>Aumentar eficiência financeira</t>
+  </si>
+  <si>
+    <t>Gestão Financeira</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Modernidade</t>
+  </si>
+  <si>
+    <t>Oliveira</t>
+  </si>
+  <si>
+    <t>PMEs</t>
+  </si>
+  <si>
+    <t>Ampliar carteira de clientes</t>
+  </si>
+  <si>
+    <t>Melhorar processo de vendas</t>
+  </si>
+  <si>
+    <t>Gestão de Venda</t>
+  </si>
+  <si>
+    <t>Integração com E-commerce</t>
+  </si>
+  <si>
+    <t>Gestores</t>
+  </si>
+  <si>
+    <t>ERP e CRM</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>rodrigo.santos@email.com</t>
+  </si>
+  <si>
+    <t>Atendimento ao cliente</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>Consumidores Finais</t>
+  </si>
+  <si>
+    <t>Reduzir tempo de espera no atendimento</t>
+  </si>
+  <si>
+    <t>Manter alta satisfação do cliente</t>
+  </si>
+  <si>
+    <t>Gestão de Atendimento</t>
+  </si>
+  <si>
+    <t>Assistentes</t>
+  </si>
+  <si>
+    <t>Software de suporte ao cliente</t>
+  </si>
+  <si>
+    <t>Personalização</t>
+  </si>
+  <si>
+    <t>Lima</t>
+  </si>
+  <si>
+    <t>Serviços</t>
+  </si>
+  <si>
+    <t>Pessoas Jurídicas</t>
+  </si>
+  <si>
+    <t>Agilizar processos internos</t>
+  </si>
+  <si>
+    <t>Melhorar comunicação interna</t>
+  </si>
+  <si>
+    <t>Automação de Processos</t>
+  </si>
+  <si>
+    <t>Devs</t>
+  </si>
+  <si>
+    <t>Automacao e ERP</t>
+  </si>
+  <si>
+    <t>Intuitividade</t>
+  </si>
+  <si>
+    <t>Pereira</t>
+  </si>
+  <si>
+    <t>andre.pereira@email.com</t>
+  </si>
+  <si>
+    <t>Agências de Publicidade</t>
+  </si>
+  <si>
+    <t>Maximizar ROI de campanhas</t>
+  </si>
+  <si>
+    <t>Melhorar segmentação de público alvo</t>
+  </si>
+  <si>
+    <t>Gestão de Campanhas</t>
+  </si>
+  <si>
+    <t>Integração com Ferramentas de Email Marketing</t>
+  </si>
+  <si>
+    <t>Analistas</t>
+  </si>
+  <si>
+    <t>CRM e Automação</t>
+  </si>
+  <si>
+    <t>Silveira</t>
+  </si>
+  <si>
+    <t>aline.silveira@email.com</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>Grandes Empresas</t>
+  </si>
+  <si>
+    <t>Analisar dados para tomada de decisão</t>
+  </si>
+  <si>
+    <t>Melhorar visualização de dados</t>
+  </si>
+  <si>
+    <t>BI e Analytics</t>
+  </si>
+  <si>
+    <t>Excel e Power BI</t>
+  </si>
+  <si>
+    <t>Inovação</t>
+  </si>
+  <si>
+    <t>Luiz</t>
+  </si>
+  <si>
+    <t>Fernandes</t>
+  </si>
+  <si>
+    <t>luiz.fernandes@email.com</t>
+  </si>
+  <si>
+    <t>Clientes Individuais</t>
+  </si>
+  <si>
+    <t>Aumentar volume de vendas</t>
+  </si>
+  <si>
+    <t>Melhorar qualificação de leads</t>
+  </si>
+  <si>
+    <t>CRM e Automacao</t>
+  </si>
+  <si>
+    <t>Usabilidade</t>
+  </si>
+  <si>
+    <t>Cristina</t>
+  </si>
+  <si>
+    <t>Melo</t>
+  </si>
+  <si>
+    <t>cristina.melo@email.com</t>
+  </si>
+  <si>
+    <t>Oferecer suporte personalizado</t>
+  </si>
+  <si>
+    <t>Melhorar tempo de resposta</t>
+  </si>
+  <si>
+    <t>Sistema de suporte ao cliente</t>
+  </si>
+  <si>
+    <t>Correia</t>
+  </si>
+  <si>
+    <t>rafaela.correia@email.com</t>
+  </si>
+  <si>
+    <t>Startups</t>
+  </si>
+  <si>
+    <t>Alcançar público-alvo específico</t>
+  </si>
+  <si>
+    <t>Melhorar taxa de conversão</t>
+  </si>
+  <si>
+    <t>Integração com Ferramentas de Automação de Marketing</t>
+  </si>
+  <si>
+    <t>carlos.silva@email.com</t>
+  </si>
+  <si>
+    <t>Reduzir inadimplência</t>
+  </si>
+  <si>
+    <t>Melhorar gestão de fluxo de caixa</t>
+  </si>
+  <si>
+    <t>ERP e Excel</t>
+  </si>
+  <si>
+    <t>Santana</t>
+  </si>
+  <si>
+    <t>mariana.santana@email.com</t>
+  </si>
+  <si>
+    <t>Padronizar processos internos</t>
+  </si>
+  <si>
+    <t>Melhorar comunicação com clientes</t>
+  </si>
+  <si>
+    <t>Automação de Processos e Atendimento</t>
+  </si>
+  <si>
+    <t>Devs e Assistentes</t>
+  </si>
+  <si>
+    <t>CRM e Software de suporte ao cliente</t>
+  </si>
+  <si>
+    <t>diego.oliveira@email.com</t>
+  </si>
+  <si>
+    <t>Reduzir churn de clientes</t>
+  </si>
+  <si>
+    <t>Melhorar experiência do cliente</t>
+  </si>
+  <si>
+    <t>Alves</t>
+  </si>
+  <si>
+    <t>patricia.alves@email.com</t>
+  </si>
+  <si>
+    <t>Analisar tendências de mercado</t>
+  </si>
+  <si>
+    <t>Melhorar relatórios gerenciais</t>
+  </si>
+  <si>
+    <t>Power BI e Excel</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>Menezes</t>
+  </si>
+  <si>
+    <t>paulo.menezes@email.com</t>
+  </si>
+  <si>
+    <t>Expandir base de clientes</t>
+  </si>
+  <si>
+    <t>Desenvolver estratégias de marketing inovadoras</t>
+  </si>
+  <si>
+    <t>Ferreira</t>
+  </si>
+  <si>
+    <t>amanda.ferreira@email.com</t>
+  </si>
+  <si>
+    <t>Assistentes e Devs</t>
+  </si>
+  <si>
+    <t>Souza</t>
+  </si>
+  <si>
+    <t>pedro.souza@email.com</t>
+  </si>
+  <si>
+    <t>Machado</t>
+  </si>
+  <si>
+    <t>julia.machado@email.com</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>Ribeiro</t>
+  </si>
+  <si>
+    <t>fernando.ribeiro@email.com</t>
+  </si>
+  <si>
+    <t>Roberta</t>
+  </si>
+  <si>
+    <t>Carvalho</t>
+  </si>
+  <si>
+    <t>roberta.carvalho@email.com</t>
+  </si>
+  <si>
+    <t>Aumentar alcance das campanhas</t>
+  </si>
+  <si>
+    <t>joao.silveira@email.com</t>
+  </si>
+  <si>
+    <t>Visualizar informações estratégicas</t>
+  </si>
+  <si>
+    <t>Nunes</t>
+  </si>
+  <si>
+    <t>camila.nunes@email.com</t>
+  </si>
+  <si>
+    <t>Aumentar taxa de conversão de vendas</t>
+  </si>
+  <si>
+    <t>Melhorar atendimento ao cliente</t>
+  </si>
+  <si>
+    <t>Figueiredo</t>
+  </si>
+  <si>
+    <t>marina.figueiredo@email.com</t>
+  </si>
+  <si>
+    <t>Elaborar relatórios estratégicos</t>
+  </si>
+  <si>
+    <t>Renato</t>
+  </si>
+  <si>
+    <t>Moura</t>
+  </si>
+  <si>
+    <t>renato.moura@email.com</t>
+  </si>
+  <si>
+    <t>Aumentar visibilidade da marca</t>
+  </si>
+  <si>
+    <t>Desenvolver estratégias de inbound marketing</t>
+  </si>
+  <si>
+    <t>Correa</t>
+  </si>
+  <si>
+    <t>bianca.correa@email.com</t>
+  </si>
+  <si>
+    <t>Luisa</t>
+  </si>
+  <si>
+    <t>luisa.silva@email.com</t>
+  </si>
+  <si>
+    <t>Aumentar eficiência operacional</t>
+  </si>
+  <si>
+    <t>Melhorar relacionamento com clientes</t>
+  </si>
+  <si>
+    <t>Rafael</t>
+  </si>
+  <si>
+    <t>rafael.santos@email.com</t>
+  </si>
+  <si>
+    <t>Costa</t>
+  </si>
+  <si>
+    <t>gabriela.costa@email.com</t>
+  </si>
+  <si>
+    <t>Produzir insights valiosos</t>
+  </si>
+  <si>
+    <t>ana.carvalho@email.com</t>
+  </si>
+  <si>
+    <t>lucas.fernandes@email.com</t>
+  </si>
+  <si>
+    <t>carolina.silveira@email.com</t>
+  </si>
+  <si>
+    <t>diego.machado@email.com</t>
+  </si>
+  <si>
+    <t>fernanda.souza@email.com</t>
+  </si>
+  <si>
+    <t>gustavo.ribeiro@email.com</t>
+  </si>
+  <si>
+    <t>marina.correa@email.com</t>
+  </si>
+  <si>
+    <t>rafael.nunes@email.com</t>
+  </si>
+  <si>
+    <t>Beatriz</t>
+  </si>
+  <si>
+    <t>luciana.almeida@email.com</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>gabriel.ferreira@email.com</t>
+  </si>
+  <si>
+    <t>Vitor</t>
+  </si>
+  <si>
+    <t>Cordeiro</t>
+  </si>
+  <si>
+    <t>vitor.cordeiro@email.com</t>
+  </si>
+  <si>
+    <t>juliana.pereira@email.com</t>
+  </si>
+  <si>
+    <t>matheus.santana@email.com</t>
+  </si>
+  <si>
+    <t>isabela.oliveira@email.com</t>
+  </si>
+  <si>
+    <t>Mendes</t>
+  </si>
+  <si>
+    <t>ricardo.mendes@email.com</t>
+  </si>
+  <si>
+    <t>Atendimento</t>
+  </si>
+  <si>
+    <t>(21) 010-1010</t>
+  </si>
+  <si>
+    <t>(31) 96333-3333</t>
+  </si>
+  <si>
+    <t>(21) 95222-2222</t>
+  </si>
+  <si>
+    <t>(11) 98111-1111</t>
+  </si>
+  <si>
+    <t>(31) 96555-5555</t>
+  </si>
+  <si>
+    <t>(31) 95444-4444</t>
+  </si>
+  <si>
+    <t>(31) 97666-6666</t>
+  </si>
+  <si>
+    <t>(31) 98777-7777</t>
+  </si>
+  <si>
+    <t>(31) 95888-8888</t>
+  </si>
+  <si>
+    <t>(31) 95999-9999</t>
+  </si>
+  <si>
+    <t>(21) 90020-2020</t>
+  </si>
+  <si>
+    <t>(21) 90030-3030</t>
+  </si>
+  <si>
+    <t>(21) 91040-4040</t>
+  </si>
+  <si>
+    <t>(21) 91050-5050</t>
+  </si>
+  <si>
+    <t>(31) 98060-6060</t>
+  </si>
+  <si>
+    <t>(11) 98070-7070</t>
+  </si>
+  <si>
+    <t>(11) 98080-8080</t>
+  </si>
+  <si>
+    <t>(11) 97090-9090</t>
+  </si>
+  <si>
+    <t>(11) 97010-1010</t>
+  </si>
+  <si>
+    <t>(11) 95020-2020</t>
+  </si>
+  <si>
+    <t>(11) 97030-3030</t>
+  </si>
+  <si>
+    <t>(21) 96040-4040</t>
+  </si>
+  <si>
+    <t>(31) 95050-5050</t>
+  </si>
+  <si>
+    <t>(31) 96060-6060</t>
+  </si>
+  <si>
+    <t>(99) 5070-7070</t>
+  </si>
+  <si>
+    <t>(99) 95080-8080</t>
+  </si>
+  <si>
+    <t>(98) 7090-9090</t>
+  </si>
+  <si>
+    <t>(96) 98010-1010</t>
+  </si>
+  <si>
+    <t>(22) 65020-2020</t>
+  </si>
+  <si>
+    <t>(22) 95111-1111</t>
+  </si>
+  <si>
+    <t>(22) 97222-2222</t>
+  </si>
+  <si>
+    <t>(22) 96333-3333</t>
+  </si>
+  <si>
+    <t>(44) 98444-4444</t>
+  </si>
+  <si>
+    <t>(44) 98555-5555</t>
+  </si>
+  <si>
+    <t>(11) 96666-6666</t>
+  </si>
+  <si>
+    <t>(11) 96777-7777</t>
+  </si>
+  <si>
+    <t>(21) 63888-8888</t>
+  </si>
+  <si>
+    <t>(21) 96999-9999</t>
+  </si>
+  <si>
+    <t>(21) 98000-0000</t>
+  </si>
+  <si>
+    <t>(21) 95123-1234</t>
+  </si>
+  <si>
+    <t>(96) 94456-4567</t>
+  </si>
+  <si>
+    <t>(11) 97789-7890</t>
+  </si>
+  <si>
+    <t>(11) 96012-0123</t>
+  </si>
+  <si>
+    <t>(11) 90345-3456</t>
+  </si>
+  <si>
+    <t>(11) 90678-6789</t>
+  </si>
+  <si>
+    <t>(11) 90901-9012</t>
   </si>
 </sst>
 </file>
@@ -1528,7 +2089,406 @@
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1965,37 +2925,69 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person9.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{10D166B6-E6B3-420B-A54F-6B7DC3BD25E4}" name="Tabela1" displayName="Tabela1" ref="A1:H52" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{10D166B6-E6B3-420B-A54F-6B7DC3BD25E4}" name="Tabela1" displayName="Tabela1" ref="A1:H52" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A1:H52" xr:uid="{10D166B6-E6B3-420B-A54F-6B7DC3BD25E4}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{9BD72B3F-7F88-4496-B5DC-8448DA46DCF3}" name="Coluna1" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{F34BFAA2-BE2F-4031-A5D6-EDF0129949FD}" name="Sobrenome" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{795A223B-C692-4337-BDEE-9A93F1037C8A}" name="Email" dataDxfId="16" dataCellStyle="Hiperlink"/>
-    <tableColumn id="4" xr3:uid="{94EAD454-433A-409D-835A-DCAC575A85E8}" name="Telefone" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{4C1B5BA0-C3D2-406D-A81A-8ECD12D01852}" name="Senha" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{E43049F0-7263-4FE5-83EC-F60842DB8335}" name="ConfirmacaoSenha" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{C81BC40C-C7D3-4B06-AA72-779C8C4AC27E}" name="Genero" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{0A7BA680-B5BD-4335-8628-E29446777F42}" name="Empresa" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{9BD72B3F-7F88-4496-B5DC-8448DA46DCF3}" name="Coluna1" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{F34BFAA2-BE2F-4031-A5D6-EDF0129949FD}" name="Sobrenome" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{795A223B-C692-4337-BDEE-9A93F1037C8A}" name="Email" dataDxfId="37" dataCellStyle="Hiperlink"/>
+    <tableColumn id="4" xr3:uid="{94EAD454-433A-409D-835A-DCAC575A85E8}" name="Telefone" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{4C1B5BA0-C3D2-406D-A81A-8ECD12D01852}" name="Senha" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{E43049F0-7263-4FE5-83EC-F60842DB8335}" name="ConfirmacaoSenha" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{C81BC40C-C7D3-4B06-AA72-779C8C4AC27E}" name="Genero" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{0A7BA680-B5BD-4335-8628-E29446777F42}" name="Empresa" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{262F4D4F-070D-469C-80C5-A2F393F2F418}" name="Tabela2" displayName="Tabela2" ref="A1:I50" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{262F4D4F-070D-469C-80C5-A2F393F2F418}" name="Tabela2" displayName="Tabela2" ref="A1:I50" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{FACDA48F-4CB7-4404-BC44-0689A064FE76}" name="Nome" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{085F98FD-20AC-4E54-BC9F-627E76025291}" name="Email" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{6FADB348-2F3A-4BDF-8A6F-8FAD557E6AD2}" name="Telefone" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{3B6448D7-3E32-42F5-9A9D-8C503379194C}" name="Segmento" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{531ACE20-EA2D-4EA0-83B2-2AEB07D7241E}" name="Cargo" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{765B5DDE-AAA0-41AD-AF74-DFC25D817AC0}" name="TamanhodaEmpresa" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{E918C924-9720-4ECB-8C6C-40950408B3EC}" name="Produto" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{722931B9-ED08-41BB-9F96-366480E2D36B}" name="Região" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{0E417333-6AE8-4F18-992D-7E7771F034F6}" name="Idioma" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{FACDA48F-4CB7-4404-BC44-0689A064FE76}" name="Nome" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{085F98FD-20AC-4E54-BC9F-627E76025291}" name="Email" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{6FADB348-2F3A-4BDF-8A6F-8FAD557E6AD2}" name="Telefone" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{3B6448D7-3E32-42F5-9A9D-8C503379194C}" name="Segmento" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{531ACE20-EA2D-4EA0-83B2-2AEB07D7241E}" name="Cargo" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{765B5DDE-AAA0-41AD-AF74-DFC25D817AC0}" name="TamanhodaEmpresa" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{E918C924-9720-4ECB-8C6C-40950408B3EC}" name="Produto" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{722931B9-ED08-41BB-9F96-366480E2D36B}" name="Região" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{0E417333-6AE8-4F18-992D-7E7771F034F6}" name="Idioma" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{598F34D9-1F2B-475C-8DC2-551E62498F0E}" name="Tabela3" displayName="Tabela3" ref="A1:S47" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:S47" xr:uid="{598F34D9-1F2B-475C-8DC2-551E62498F0E}"/>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{043ECB65-D739-4D9C-9271-E8BA24499B56}" name="Nome" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{3C62CFAD-1614-4FC4-8A3B-6F313DE23E7E}" name="Sobrenome" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{B5B14BB0-609F-4FAB-80C7-064245260A0D}" name="Email" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{F6329C90-4092-46FB-8DB8-3F7497F287F4}" name="Telefone" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{B6DD2E25-0021-4009-8F2B-DF9F7DC4A64D}" name="SetorAtuacao" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{8B91EC71-4CED-43F6-B112-FE2E2C2782E7}" name="Cargo" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{F1DB0760-F532-4A0C-8E47-75E509878481}" name="PublicoAlvo" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{806F760D-E5E5-4F49-BBE5-0CF89A09487A}" name="PrincipaisDesafios" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{79033D44-6387-4AB7-8C47-6734D335CD20}" name="PrincipaisObjetivos" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{8B72C895-B4F6-4702-B710-4A7613F6D753}" name="AreaConexao" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{F1310C07-9086-44ED-9C72-64E97FC298A4}" name="ProcessosOtimizar" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{20F1ACD7-1CA6-456D-9860-A8DBD144EFBF}" name="TipoConexao" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{FE34F811-A40A-4BC2-A4E8-1D3147456013}" name="PessoaProcesso" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{D9E037D1-5D85-4900-9BB0-8F05DBDCD1EF}" name="SistemasUtilizados" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{301CE23A-B819-4931-A471-15EC9B2AC210}" name="Local" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{2EF17230-F286-408F-BEA5-D79B0B49BA84}" name="ProcessosManuais" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{B0145322-A53E-444F-ADBC-292A35939AAB}" name="UsoCRM" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{F6C94949-C2CD-4970-89D3-0BB3DEC58CFF}" name="ConhecimentoIntegracoes" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{A4898112-66D1-4ADD-8105-BF4221AFE3D3}" name="Preferencias" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2311,42 +3303,42 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2">
         <v>123456</v>
@@ -2355,76 +3347,76 @@
         <v>123456</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2">
         <v>123456</v>
@@ -2433,24 +3425,24 @@
         <v>123456</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="E6" s="2">
         <v>987654</v>
@@ -2459,76 +3451,76 @@
         <v>987654</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="E9" s="2">
         <v>456789</v>
@@ -2537,154 +3529,154 @@
         <v>456789</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="E15" s="2">
         <v>654321</v>
@@ -2693,518 +3685,518 @@
         <v>654321</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="H27" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="E35" s="2">
         <v>123456</v>
@@ -3213,24 +4205,24 @@
         <v>123456</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="E36" s="2">
         <v>987654</v>
@@ -3239,24 +4231,24 @@
         <v>987654</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="E37" s="2">
         <v>789456</v>
@@ -3265,102 +4257,102 @@
         <v>789456</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="E41" s="2">
         <v>13579</v>
@@ -3369,24 +4361,24 @@
         <v>13579</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="E42" s="2">
         <v>24680</v>
@@ -3395,24 +4387,24 @@
         <v>24680</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="E43" s="2">
         <v>369852</v>
@@ -3421,24 +4413,24 @@
         <v>369852</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="E44" s="2">
         <v>753159</v>
@@ -3447,128 +4439,128 @@
         <v>753159</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>199</v>
+        <v>152</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="E49" s="2">
         <v>123456</v>
@@ -3577,24 +4569,24 @@
         <v>123456</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="E50" s="2">
         <v>987654</v>
@@ -3603,24 +4595,24 @@
         <v>987654</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="E51" s="2">
         <v>789456</v>
@@ -3629,36 +4621,36 @@
         <v>789456</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3695,7 +4687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37693195-9AC7-48FB-BCB6-97EA8F1D0485}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
@@ -3715,1452 +4707,1452 @@
   <sheetData>
     <row r="1" spans="1:9" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>256</v>
+        <v>209</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>265</v>
+        <v>218</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>454</v>
+        <v>407</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>455</v>
+        <v>408</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>454</v>
+        <v>407</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>452</v>
+        <v>405</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>294</v>
+        <v>247</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>295</v>
+        <v>248</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>299</v>
+        <v>252</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>308</v>
-      </c>
       <c r="I10" s="6" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>308</v>
+        <v>261</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>314</v>
+        <v>267</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>315</v>
+        <v>268</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>317</v>
+        <v>270</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>318</v>
+        <v>271</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>319</v>
+        <v>272</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>296</v>
-      </c>
       <c r="H18" s="6" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>350</v>
+        <v>303</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>351</v>
+        <v>304</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>353</v>
+        <v>306</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>359</v>
+        <v>312</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>360</v>
+        <v>313</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>361</v>
+        <v>314</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>363</v>
+        <v>316</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>365</v>
+        <v>318</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>375</v>
+        <v>328</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>376</v>
+        <v>329</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>377</v>
+        <v>330</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>242</v>
+        <v>195</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>380</v>
+        <v>333</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>381</v>
+        <v>334</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>382</v>
+        <v>335</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>385</v>
+        <v>338</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>388</v>
+        <v>341</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>390</v>
+        <v>343</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>456</v>
+        <v>409</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>393</v>
+        <v>346</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>454</v>
+        <v>407</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>457</v>
+        <v>410</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>454</v>
+        <v>407</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>397</v>
+        <v>350</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>454</v>
+        <v>407</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>401</v>
+        <v>354</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>454</v>
+        <v>407</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>404</v>
+        <v>357</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>460</v>
+        <v>413</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>405</v>
+        <v>358</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>454</v>
+        <v>407</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>461</v>
+        <v>414</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>454</v>
+        <v>407</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>406</v>
+        <v>359</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>454</v>
-      </c>
       <c r="I36" s="6" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>409</v>
+        <v>362</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>410</v>
+        <v>363</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>454</v>
+        <v>407</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>411</v>
+        <v>364</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>412</v>
+        <v>365</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>413</v>
+        <v>366</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>414</v>
+        <v>367</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>415</v>
+        <v>368</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>416</v>
+        <v>369</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>417</v>
+        <v>370</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>314</v>
+        <v>267</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>315</v>
+        <v>268</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>418</v>
+        <v>371</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>419</v>
+        <v>372</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>420</v>
+        <v>373</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>421</v>
+        <v>374</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>422</v>
+        <v>375</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>424</v>
+        <v>377</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>425</v>
+        <v>378</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>426</v>
+        <v>379</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>427</v>
+        <v>380</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>428</v>
+        <v>381</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>265</v>
+        <v>218</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>429</v>
+        <v>382</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>430</v>
+        <v>383</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>431</v>
+        <v>384</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>432</v>
+        <v>385</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>433</v>
+        <v>386</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>434</v>
+        <v>387</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>435</v>
+        <v>388</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>436</v>
+        <v>389</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>437</v>
+        <v>390</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>242</v>
+        <v>195</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>438</v>
+        <v>391</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>439</v>
+        <v>392</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>350</v>
+        <v>303</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>440</v>
+        <v>393</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>441</v>
+        <v>394</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>442</v>
+        <v>395</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>443</v>
+        <v>396</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>444</v>
+        <v>397</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>445</v>
+        <v>398</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>446</v>
+        <v>399</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>447</v>
+        <v>400</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>448</v>
+        <v>401</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>449</v>
+        <v>402</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>450</v>
+        <v>403</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>451</v>
+        <v>404</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -5173,253 +6165,2795 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2D12AD-2BCE-4182-9851-6FC89D2B7D69}">
-  <dimension ref="A1:A47"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="K19" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="58.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="28.109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
+      <c r="B22" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
+      <c r="B31" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A38" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A39" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A42" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A43" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A44" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="B44" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A45" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A46" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A47" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/AI & Chatbot/Dados-Analise-IA.xlsx
+++ b/AI & Chatbot/Dados-Analise-IA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ezzeseguroscombr-my.sharepoint.com/personal/claudio_bispo_ezzeseguros_com_br/Documents/Área de Trabalho/PESSOAL/FIAP/CHALLENGE/TERCEIRA SPRINT/IA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Downloads\IA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{042E18AC-7709-4568-B1DE-1D8C5FC73227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8C5B29A-7254-433C-9FC4-5C9B3F0A92E4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD4C7BF-48AD-43E8-8116-D3BD62F200F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5A6420E8-40DB-4CDE-9C2D-E46CAA91B4B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5A6420E8-40DB-4CDE-9C2D-E46CAA91B4B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Cadastro" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="650">
   <si>
     <t>Nome</t>
   </si>
@@ -607,9 +607,6 @@
   </si>
   <si>
     <t>lucas.oliveira@gmail.com</t>
-  </si>
-  <si>
-    <t>Coluna1</t>
   </si>
   <si>
     <t>Tecnologia</t>
@@ -2086,7 +2083,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="42">
@@ -2933,9 +2930,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{10D166B6-E6B3-420B-A54F-6B7DC3BD25E4}" name="Tabela1" displayName="Tabela1" ref="A1:H52" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A1:H52" xr:uid="{10D166B6-E6B3-420B-A54F-6B7DC3BD25E4}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{9BD72B3F-7F88-4496-B5DC-8448DA46DCF3}" name="Coluna1" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{9BD72B3F-7F88-4496-B5DC-8448DA46DCF3}" name="Nome" dataDxfId="39"/>
     <tableColumn id="2" xr3:uid="{F34BFAA2-BE2F-4031-A5D6-EDF0129949FD}" name="Sobrenome" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{795A223B-C692-4337-BDEE-9A93F1037C8A}" name="Email" dataDxfId="37" dataCellStyle="Hiperlink"/>
+    <tableColumn id="3" xr3:uid="{795A223B-C692-4337-BDEE-9A93F1037C8A}" name="Email" dataDxfId="37"/>
     <tableColumn id="4" xr3:uid="{94EAD454-433A-409D-835A-DCAC575A85E8}" name="Telefone" dataDxfId="36"/>
     <tableColumn id="5" xr3:uid="{4C1B5BA0-C3D2-406D-A81A-8ECD12D01852}" name="Senha" dataDxfId="35"/>
     <tableColumn id="6" xr3:uid="{E43049F0-7263-4FE5-83EC-F60842DB8335}" name="ConfirmacaoSenha" dataDxfId="34"/>
@@ -2964,35 +2961,35 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{598F34D9-1F2B-475C-8DC2-551E62498F0E}" name="Tabela3" displayName="Tabela3" ref="A1:S47" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{598F34D9-1F2B-475C-8DC2-551E62498F0E}" name="Tabela3" displayName="Tabela3" ref="A1:S47" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:S47" xr:uid="{598F34D9-1F2B-475C-8DC2-551E62498F0E}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{043ECB65-D739-4D9C-9271-E8BA24499B56}" name="Nome" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{3C62CFAD-1614-4FC4-8A3B-6F313DE23E7E}" name="Sobrenome" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{B5B14BB0-609F-4FAB-80C7-064245260A0D}" name="Email" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{F6329C90-4092-46FB-8DB8-3F7497F287F4}" name="Telefone" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{B6DD2E25-0021-4009-8F2B-DF9F7DC4A64D}" name="SetorAtuacao" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{8B91EC71-4CED-43F6-B112-FE2E2C2782E7}" name="Cargo" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{F1DB0760-F532-4A0C-8E47-75E509878481}" name="PublicoAlvo" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{806F760D-E5E5-4F49-BBE5-0CF89A09487A}" name="PrincipaisDesafios" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{79033D44-6387-4AB7-8C47-6734D335CD20}" name="PrincipaisObjetivos" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{8B72C895-B4F6-4702-B710-4A7613F6D753}" name="AreaConexao" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{F1310C07-9086-44ED-9C72-64E97FC298A4}" name="ProcessosOtimizar" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{20F1ACD7-1CA6-456D-9860-A8DBD144EFBF}" name="TipoConexao" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{FE34F811-A40A-4BC2-A4E8-1D3147456013}" name="PessoaProcesso" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{D9E037D1-5D85-4900-9BB0-8F05DBDCD1EF}" name="SistemasUtilizados" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{301CE23A-B819-4931-A471-15EC9B2AC210}" name="Local" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{2EF17230-F286-408F-BEA5-D79B0B49BA84}" name="ProcessosManuais" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{B0145322-A53E-444F-ADBC-292A35939AAB}" name="UsoCRM" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{F6C94949-C2CD-4970-89D3-0BB3DEC58CFF}" name="ConhecimentoIntegracoes" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{A4898112-66D1-4ADD-8105-BF4221AFE3D3}" name="Preferencias" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{043ECB65-D739-4D9C-9271-E8BA24499B56}" name="Nome" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{3C62CFAD-1614-4FC4-8A3B-6F313DE23E7E}" name="Sobrenome" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{B5B14BB0-609F-4FAB-80C7-064245260A0D}" name="Email" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{F6329C90-4092-46FB-8DB8-3F7497F287F4}" name="Telefone" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{B6DD2E25-0021-4009-8F2B-DF9F7DC4A64D}" name="SetorAtuacao" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{8B91EC71-4CED-43F6-B112-FE2E2C2782E7}" name="Cargo" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{F1DB0760-F532-4A0C-8E47-75E509878481}" name="PublicoAlvo" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{806F760D-E5E5-4F49-BBE5-0CF89A09487A}" name="PrincipaisDesafios" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{79033D44-6387-4AB7-8C47-6734D335CD20}" name="PrincipaisObjetivos" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{8B72C895-B4F6-4702-B710-4A7613F6D753}" name="AreaConexao" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{F1310C07-9086-44ED-9C72-64E97FC298A4}" name="ProcessosOtimizar" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{20F1ACD7-1CA6-456D-9860-A8DBD144EFBF}" name="TipoConexao" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{FE34F811-A40A-4BC2-A4E8-1D3147456013}" name="PessoaProcesso" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{D9E037D1-5D85-4900-9BB0-8F05DBDCD1EF}" name="SistemasUtilizados" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{301CE23A-B819-4931-A471-15EC9B2AC210}" name="Local" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{2EF17230-F286-408F-BEA5-D79B0B49BA84}" name="ProcessosManuais" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{B0145322-A53E-444F-ADBC-292A35939AAB}" name="UsoCRM" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{F6C94949-C2CD-4970-89D3-0BB3DEC58CFF}" name="ConhecimentoIntegracoes" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{A4898112-66D1-4ADD-8105-BF4221AFE3D3}" name="Preferencias" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3290,20 +3287,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E142AD7B-4D38-44F9-B9A7-BD76034BC0F8}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.5546875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="26.5703125" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="26.5546875" style="2"/>
-    <col min="3" max="3" width="31.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="26.5546875" style="2"/>
+    <col min="1" max="2" width="26.5703125" style="2"/>
+    <col min="3" max="3" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="26.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -3327,7 +3324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -3353,7 +3350,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -3379,7 +3376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -3405,7 +3402,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -3431,7 +3428,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -3457,7 +3454,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -3483,7 +3480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -3509,7 +3506,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
@@ -3535,7 +3532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -3561,7 +3558,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -3587,7 +3584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -3613,7 +3610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -3639,7 +3636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -3665,7 +3662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -3691,7 +3688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
@@ -3717,7 +3714,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
@@ -3743,7 +3740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
@@ -3769,7 +3766,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>159</v>
       </c>
@@ -3795,7 +3792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
@@ -3821,7 +3818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
@@ -3847,7 +3844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>56</v>
       </c>
@@ -3873,7 +3870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>58</v>
       </c>
@@ -3899,7 +3896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
@@ -3925,7 +3922,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>62</v>
       </c>
@@ -3951,7 +3948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>64</v>
       </c>
@@ -3977,7 +3974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>66</v>
       </c>
@@ -4003,7 +4000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
@@ -4029,7 +4026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>69</v>
       </c>
@@ -4055,7 +4052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>156</v>
       </c>
@@ -4081,7 +4078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>72</v>
       </c>
@@ -4107,7 +4104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
@@ -4133,7 +4130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
@@ -4159,7 +4156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4185,7 +4182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>19</v>
       </c>
@@ -4211,7 +4208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>22</v>
       </c>
@@ -4237,7 +4234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>75</v>
       </c>
@@ -4263,7 +4260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>38</v>
       </c>
@@ -4289,7 +4286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>76</v>
       </c>
@@ -4315,7 +4312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>157</v>
       </c>
@@ -4341,7 +4338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
@@ -4367,7 +4364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>44</v>
       </c>
@@ -4393,7 +4390,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>77</v>
       </c>
@@ -4419,7 +4416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>28</v>
       </c>
@@ -4445,7 +4442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>78</v>
       </c>
@@ -4471,7 +4468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>79</v>
       </c>
@@ -4497,7 +4494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
@@ -4523,7 +4520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>160</v>
       </c>
@@ -4549,7 +4546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>66</v>
       </c>
@@ -4575,7 +4572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>47</v>
       </c>
@@ -4601,7 +4598,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>81</v>
       </c>
@@ -4627,7 +4624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>162</v>
       </c>
@@ -4691,21 +4688,21 @@
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4716,1443 +4713,1443 @@
         <v>3</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="G2" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B35" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C35" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E43" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="H45" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="I45" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D3" s="6" t="s">
+    </row>
+    <row r="46" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="E47" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="G49" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G50" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="I50" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -6167,35 +6164,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2D12AD-2BCE-4182-9851-6FC89D2B7D69}">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="K19" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="K19" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="41" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="58.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.44140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="28.109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="58.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="28.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6209,2736 +6206,2736 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>441</v>
-      </c>
       <c r="P2" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="S2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>491</v>
-      </c>
       <c r="O7" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="H9" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>514</v>
-      </c>
       <c r="O10" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>520</v>
-      </c>
       <c r="M11" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>491</v>
-      </c>
       <c r="O11" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>524</v>
-      </c>
       <c r="O12" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>531</v>
-      </c>
       <c r="O13" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>534</v>
-      </c>
       <c r="J14" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K14" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>471</v>
-      </c>
       <c r="N14" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="I15" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="P15" s="2" t="s">
+      <c r="E16" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="S16" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="Q15" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>547</v>
-      </c>
       <c r="N17" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>549</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="N18" s="2" t="s">
+      <c r="O18" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="S18" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="O18" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="E20" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="E21" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>558</v>
-      </c>
       <c r="I21" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>520</v>
-      </c>
       <c r="M21" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="N21" s="2" t="s">
-        <v>491</v>
-      </c>
       <c r="O21" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>560</v>
-      </c>
       <c r="J22" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>564</v>
-      </c>
       <c r="J23" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N23" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="S23" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="O23" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K24" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="L24" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>471</v>
-      </c>
       <c r="N24" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="J25" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A26" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="E26" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>572</v>
-      </c>
       <c r="J26" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M26" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="N26" s="2" t="s">
-        <v>491</v>
-      </c>
       <c r="O26" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="B28" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A28" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="E28" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="I28" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A29" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>632</v>
-      </c>
       <c r="E29" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>467</v>
-      </c>
       <c r="H29" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>534</v>
-      </c>
       <c r="J29" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K29" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="L29" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>471</v>
-      </c>
       <c r="N29" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>583</v>
-      </c>
       <c r="J30" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H31" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="N31" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="N31" s="2" t="s">
+      <c r="O31" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="S31" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="O31" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K32" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M32" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="L32" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>471</v>
-      </c>
       <c r="N32" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>495</v>
-      </c>
       <c r="H33" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H34" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>572</v>
-      </c>
       <c r="J34" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M34" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="N34" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="N34" s="2" t="s">
-        <v>491</v>
-      </c>
       <c r="O34" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H35" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="J35" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="N35" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>524</v>
-      </c>
       <c r="O35" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H36" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>578</v>
-      </c>
       <c r="J36" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K36" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M36" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="L36" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M36" s="2" t="s">
+      <c r="N36" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="N36" s="2" t="s">
-        <v>531</v>
-      </c>
       <c r="O36" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="E38" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M39" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="L37" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="S37" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A38" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A39" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>471</v>
-      </c>
       <c r="N39" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="S39" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="O39" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K40" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M40" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="L40" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>471</v>
-      </c>
       <c r="N40" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="R41" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="S41" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A42" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="I42" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="B43" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q42" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="R42" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="S42" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A43" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>646</v>
-      </c>
       <c r="E43" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H43" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>578</v>
-      </c>
       <c r="J43" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K43" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M43" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="L43" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M43" s="2" t="s">
+      <c r="N43" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="N43" s="2" t="s">
-        <v>531</v>
-      </c>
       <c r="O43" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>467</v>
-      </c>
       <c r="H44" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>534</v>
-      </c>
       <c r="J44" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K44" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M44" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="L44" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>471</v>
-      </c>
       <c r="N44" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>496</v>
-      </c>
       <c r="I45" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="C47" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A47" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="E47" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="J47" s="2" t="s">
         <v>603</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>604</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
